--- a/Experimental_scripts/Lists/repswitch_V1L2.xlsx
+++ b/Experimental_scripts/Lists/repswitch_V1L2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\experiment1\Experimental_scripts\Lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9512E8-DB2A-4414-8E6F-503BE86605C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{362AC399-2119-49DE-A42B-F311C0336977}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -242,211 +242,100 @@
     <t>Extra4</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_340.png</t>
-  </si>
-  <si>
     <t>Extra5</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_391.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_590.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_646.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_673.png</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_663.png</t>
   </si>
   <si>
     <t>block</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_338.png</t>
-  </si>
-  <si>
     <t>regalo</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_142.png</t>
   </si>
   <si>
     <t>vaso</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_498.png</t>
-  </si>
-  <si>
     <t>taza</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_16.png</t>
   </si>
   <si>
     <t>cazador</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_719.png</t>
-  </si>
-  <si>
     <t>baño</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_169.png</t>
   </si>
   <si>
     <t>espalda</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_687.png</t>
-  </si>
-  <si>
     <t>camisa</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_178.png</t>
   </si>
   <si>
     <t>puente</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_128.png</t>
-  </si>
-  <si>
     <t>muñeca</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_319.png</t>
   </si>
   <si>
     <t>vaca</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_728.png</t>
-  </si>
-  <si>
     <t>pulpo</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_8.png</t>
   </si>
   <si>
     <t>pierna</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_48.png</t>
-  </si>
-  <si>
     <t>bombero</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_135.png</t>
   </si>
   <si>
     <t>traje</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_19.png</t>
-  </si>
-  <si>
     <t>pavo</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_446.png</t>
   </si>
   <si>
     <t>cerdo</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_552.png</t>
-  </si>
-  <si>
     <t>manzana</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_517.png</t>
   </si>
   <si>
     <t>cuerda</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_30.png</t>
-  </si>
-  <si>
     <t>granja</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_199.png</t>
   </si>
   <si>
     <t>falda</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_152.png</t>
-  </si>
-  <si>
     <t>caracol</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_175.png</t>
   </si>
   <si>
     <t>pintor</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_264.png</t>
-  </si>
-  <si>
     <t>mano</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_235.png</t>
   </si>
   <si>
     <t>aguja</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_271.png</t>
-  </si>
-  <si>
     <t>conejo</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_610.png</t>
   </si>
   <si>
     <t>miel</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_464.png</t>
-  </si>
-  <si>
     <t>goma</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_320.png</t>
   </si>
   <si>
     <t>iglesia</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_35.png</t>
-  </si>
-  <si>
     <t>oreja</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_242.png</t>
-  </si>
-  <si>
     <t>cartero</t>
-  </si>
-  <si>
-    <t>REPSWITCH1/PICTURE_576.png</t>
   </si>
   <si>
     <t>guante</t>
@@ -455,10 +344,121 @@
     <t>fresa</t>
   </si>
   <si>
-    <t>REPSWITCH1/PICTURE_381.png</t>
+    <t>trial_no</t>
   </si>
   <si>
-    <t>trial_no</t>
+    <t>Pictures/PICTURE_646.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_340.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_338.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_142.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_498.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_16.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_719.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_169.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_687.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_178.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_128.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_319.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_728.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_381.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_8.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_48.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_135.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_19.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_446.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_552.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_517.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_30.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_199.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_152.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_175.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_264.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_235.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_271.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_610.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_464.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_320.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_35.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_242.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_576.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_673.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_663.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_391.png</t>
+  </si>
+  <si>
+    <t>Pictures/PICTURE_590.png</t>
   </si>
 </sst>
 </file>
@@ -578,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -628,11 +628,52 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="20">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="161"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <charset val="161"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -993,28 +1034,6 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <b val="0"/>
-        <charset val="161"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <charset val="161"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <border outline="0">
         <bottom style="thin">
           <color theme="6"/>
@@ -1051,23 +1070,23 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B4A754F2-FD40-4B75-A900-16680AA6FAD0}" name="Table2232" displayName="Table2232" ref="A1:Q409" totalsRowShown="0" headerRowDxfId="19" dataDxfId="17" headerRowBorderDxfId="18">
   <autoFilter ref="A1:Q409" xr:uid="{B4A754F2-FD40-4B75-A900-16680AA6FAD0}"/>
   <tableColumns count="17">
-    <tableColumn id="1" xr3:uid="{C742E1B7-AE35-4FC6-8959-ECD87E6C09A1}" name="image" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{A82F759B-4E2A-469F-B27E-DE010F715E19}" name="correctAns" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{22D170A9-DE8C-4B73-BC61-9F12F998114E}" name="respModal" dataDxfId="14"/>
-    <tableColumn id="4" xr3:uid="{DF53A5D3-F504-4A43-990E-01EE79FED5E6}" name="frameColor" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{19BDFA7C-831B-4EFB-A0D2-21D541C77D78}" name="repSwitch" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{21B79AF7-40B0-4AC3-BA26-A653F81AFB85}" name="sequence" dataDxfId="11"/>
-    <tableColumn id="7" xr3:uid="{544F6E23-1B93-4AEC-95F9-9D644639FE79}" name="target" dataDxfId="10"/>
-    <tableColumn id="8" xr3:uid="{746EC838-54C5-4421-B0BA-1306F823C5B8}" name="set" dataDxfId="9"/>
-    <tableColumn id="18" xr3:uid="{16F634B8-97C2-463B-8D97-FF4ABE95D383}" name="block" dataDxfId="8"/>
-    <tableColumn id="14" xr3:uid="{C3009413-85BE-4CD9-B524-AEFEBDC5E3F7}" name="list" dataDxfId="7"/>
-    <tableColumn id="15" xr3:uid="{20E4ACEE-96F7-477E-8DC8-960C4C16FC82}" name="exp_version" dataDxfId="6"/>
-    <tableColumn id="9" xr3:uid="{670EC57D-9956-4CE3-A8B8-DC4229AF9814}" name="stimulus" dataDxfId="5"/>
-    <tableColumn id="10" xr3:uid="{C960D666-E286-4F80-8683-C00418FC5073}" name="baseline" dataDxfId="4"/>
-    <tableColumn id="11" xr3:uid="{FC3F98BA-88EE-46C7-A394-2EB8A0A5AA9F}" name="baseline_condition" dataDxfId="3"/>
-    <tableColumn id="12" xr3:uid="{8D12A644-2D26-48C4-B5E7-054BC2CB0377}" name="trial_no" dataDxfId="2"/>
-    <tableColumn id="13" xr3:uid="{3F7D0ADA-15DE-4D5E-8408-BDBE0384D171}" name="psychopy_trial" dataDxfId="1"/>
-    <tableColumn id="16" xr3:uid="{549ED4A4-A7D9-4823-94F1-D9B0B9797CE5}" name="Column1" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{C742E1B7-AE35-4FC6-8959-ECD87E6C09A1}" name="image" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{A82F759B-4E2A-469F-B27E-DE010F715E19}" name="correctAns" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{22D170A9-DE8C-4B73-BC61-9F12F998114E}" name="respModal" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{DF53A5D3-F504-4A43-990E-01EE79FED5E6}" name="frameColor" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{19BDFA7C-831B-4EFB-A0D2-21D541C77D78}" name="repSwitch" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{21B79AF7-40B0-4AC3-BA26-A653F81AFB85}" name="sequence" dataDxfId="13"/>
+    <tableColumn id="7" xr3:uid="{544F6E23-1B93-4AEC-95F9-9D644639FE79}" name="target" dataDxfId="12"/>
+    <tableColumn id="8" xr3:uid="{746EC838-54C5-4421-B0BA-1306F823C5B8}" name="set" dataDxfId="11"/>
+    <tableColumn id="18" xr3:uid="{16F634B8-97C2-463B-8D97-FF4ABE95D383}" name="block" dataDxfId="10"/>
+    <tableColumn id="14" xr3:uid="{C3009413-85BE-4CD9-B524-AEFEBDC5E3F7}" name="list" dataDxfId="9"/>
+    <tableColumn id="15" xr3:uid="{20E4ACEE-96F7-477E-8DC8-960C4C16FC82}" name="exp_version" dataDxfId="8"/>
+    <tableColumn id="9" xr3:uid="{670EC57D-9956-4CE3-A8B8-DC4229AF9814}" name="stimulus" dataDxfId="7"/>
+    <tableColumn id="10" xr3:uid="{C960D666-E286-4F80-8683-C00418FC5073}" name="baseline" dataDxfId="6"/>
+    <tableColumn id="11" xr3:uid="{FC3F98BA-88EE-46C7-A394-2EB8A0A5AA9F}" name="baseline_condition" dataDxfId="5"/>
+    <tableColumn id="12" xr3:uid="{8D12A644-2D26-48C4-B5E7-054BC2CB0377}" name="trial_no" dataDxfId="4"/>
+    <tableColumn id="13" xr3:uid="{3F7D0ADA-15DE-4D5E-8408-BDBE0384D171}" name="psychopy_trial" dataDxfId="3"/>
+    <tableColumn id="16" xr3:uid="{549ED4A4-A7D9-4823-94F1-D9B0B9797CE5}" name="Column1" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1362,14 +1381,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B016DB4B-87B2-4DD8-86A1-EC57913B1677}">
   <dimension ref="A1:Q409"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q1" sqref="Q1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="27.44140625" style="26" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="21" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
@@ -1394,7 +1416,7 @@
         <v>32</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="J1" s="3" t="s">
         <v>61</v>
@@ -1412,7 +1434,7 @@
         <v>60</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>141</v>
+        <v>103</v>
       </c>
       <c r="P1" s="5" t="s">
         <v>58</v>
@@ -1422,8 +1444,8 @@
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A2" s="15" t="s">
-        <v>73</v>
+      <c r="A2" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>55</v>
@@ -1473,8 +1495,8 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
-        <v>69</v>
+      <c r="A3" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>52</v>
@@ -1524,11 +1546,11 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>77</v>
+      <c r="A4" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>1</v>
@@ -1575,11 +1597,11 @@
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>79</v>
+      <c r="A5" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>1</v>
@@ -1628,11 +1650,11 @@
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>79</v>
+      <c r="A6" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>1</v>
@@ -1679,11 +1701,11 @@
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>81</v>
+      <c r="A7" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>2</v>
@@ -1730,11 +1752,11 @@
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>83</v>
+      <c r="A8" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>1</v>
@@ -1783,11 +1805,11 @@
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>83</v>
+      <c r="A9" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>1</v>
@@ -1834,11 +1856,11 @@
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>85</v>
+      <c r="A10" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>2</v>
@@ -1885,11 +1907,11 @@
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
-        <v>87</v>
+      <c r="A11" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>1</v>
@@ -1936,11 +1958,11 @@
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>87</v>
+      <c r="A12" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>2</v>
@@ -1987,11 +2009,11 @@
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
-        <v>89</v>
+      <c r="A13" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>2</v>
@@ -2038,11 +2060,11 @@
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>91</v>
+      <c r="A14" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>2</v>
@@ -2091,11 +2113,11 @@
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
-        <v>91</v>
+      <c r="A15" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>1</v>
@@ -2142,11 +2164,11 @@
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>93</v>
+      <c r="A16" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>1</v>
@@ -2195,11 +2217,11 @@
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
-        <v>93</v>
+      <c r="A17" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>2</v>
@@ -2246,11 +2268,11 @@
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>95</v>
+      <c r="A18" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>1</v>
@@ -2299,11 +2321,11 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>97</v>
+      <c r="A19" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C19" s="6" t="s">
         <v>1</v>
@@ -2350,11 +2372,11 @@
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>140</v>
+      <c r="A20" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>2</v>
@@ -2403,11 +2425,11 @@
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1" t="s">
-        <v>140</v>
+      <c r="A21" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>2</v>
@@ -2454,11 +2476,11 @@
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>99</v>
+      <c r="A22" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>1</v>
@@ -2505,11 +2527,11 @@
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A23" s="1" t="s">
-        <v>101</v>
+      <c r="A23" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>1</v>
@@ -2556,11 +2578,11 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>103</v>
+      <c r="A24" s="23" t="s">
+        <v>120</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>2</v>
@@ -2609,11 +2631,11 @@
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>103</v>
+      <c r="A25" s="23" t="s">
+        <v>120</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>2</v>
@@ -2660,11 +2682,11 @@
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>105</v>
+      <c r="A26" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>2</v>
@@ -2713,11 +2735,11 @@
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
-        <v>105</v>
+      <c r="A27" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C27" s="6" t="s">
         <v>1</v>
@@ -2764,11 +2786,11 @@
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>79</v>
+      <c r="A28" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C28" s="6" t="s">
         <v>1</v>
@@ -2815,11 +2837,11 @@
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" s="1" t="s">
-        <v>103</v>
+      <c r="A29" s="23" t="s">
+        <v>120</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C29" s="6" t="s">
         <v>2</v>
@@ -2866,11 +2888,11 @@
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
-        <v>107</v>
+      <c r="A30" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C30" s="6" t="s">
         <v>2</v>
@@ -2917,11 +2939,11 @@
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
-        <v>107</v>
+      <c r="A31" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C31" s="6" t="s">
         <v>2</v>
@@ -2968,11 +2990,11 @@
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
-        <v>83</v>
+      <c r="A32" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C32" s="6" t="s">
         <v>1</v>
@@ -3019,11 +3041,11 @@
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
-        <v>109</v>
+      <c r="A33" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>2</v>
@@ -3072,11 +3094,11 @@
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>109</v>
+      <c r="A34" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C34" s="6" t="s">
         <v>2</v>
@@ -3123,11 +3145,11 @@
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" s="1" t="s">
-        <v>111</v>
+      <c r="A35" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C35" s="6" t="s">
         <v>2</v>
@@ -3174,11 +3196,11 @@
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
-        <v>111</v>
+      <c r="A36" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C36" s="6" t="s">
         <v>1</v>
@@ -3225,11 +3247,11 @@
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>87</v>
+      <c r="A37" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>1</v>
@@ -3278,11 +3300,11 @@
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
-        <v>113</v>
+      <c r="A38" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>1</v>
@@ -3331,11 +3353,11 @@
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
-        <v>113</v>
+      <c r="A39" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>2</v>
@@ -3382,11 +3404,11 @@
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
-        <v>93</v>
+      <c r="A40" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C40" s="6" t="s">
         <v>2</v>
@@ -3435,11 +3457,11 @@
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A41" s="1" t="s">
-        <v>115</v>
+      <c r="A41" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C41" s="6" t="s">
         <v>2</v>
@@ -3486,11 +3508,11 @@
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
-        <v>115</v>
+      <c r="A42" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C42" s="6" t="s">
         <v>1</v>
@@ -3537,11 +3559,11 @@
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" s="1" t="s">
-        <v>117</v>
+      <c r="A43" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C43" s="6" t="s">
         <v>1</v>
@@ -3590,11 +3612,11 @@
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" s="1" t="s">
-        <v>117</v>
+      <c r="A44" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>1</v>
@@ -3641,11 +3663,11 @@
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" s="1" t="s">
-        <v>140</v>
+      <c r="A45" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>2</v>
@@ -3692,11 +3714,11 @@
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" s="1" t="s">
-        <v>119</v>
+      <c r="A46" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>1</v>
@@ -3745,11 +3767,11 @@
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A47" s="1" t="s">
-        <v>119</v>
+      <c r="A47" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>1</v>
@@ -3796,11 +3818,11 @@
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" s="1" t="s">
-        <v>91</v>
+      <c r="A48" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>2</v>
@@ -3847,11 +3869,11 @@
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" s="1" t="s">
-        <v>105</v>
+      <c r="A49" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>1</v>
@@ -3898,11 +3920,11 @@
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" s="1" t="s">
-        <v>121</v>
+      <c r="A50" s="23" t="s">
+        <v>129</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>1</v>
@@ -3951,11 +3973,11 @@
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>121</v>
+      <c r="A51" s="23" t="s">
+        <v>129</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>2</v>
@@ -4002,11 +4024,11 @@
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" s="14" t="s">
-        <v>107</v>
+      <c r="A52" s="24" t="s">
+        <v>122</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>2</v>
@@ -4053,11 +4075,11 @@
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A53" s="1" t="s">
-        <v>123</v>
+      <c r="A53" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>2</v>
@@ -4106,11 +4128,11 @@
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A54" s="1" t="s">
-        <v>123</v>
+      <c r="A54" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C54" s="6" t="s">
         <v>1</v>
@@ -4157,11 +4179,11 @@
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A55" s="1" t="s">
-        <v>109</v>
+      <c r="A55" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>1</v>
@@ -4208,11 +4230,11 @@
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" s="1" t="s">
-        <v>125</v>
+      <c r="A56" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>1</v>
@@ -4261,11 +4283,11 @@
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" s="1" t="s">
-        <v>125</v>
+      <c r="A57" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>2</v>
@@ -4312,11 +4334,11 @@
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A58" s="1" t="s">
-        <v>127</v>
+      <c r="A58" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>2</v>
@@ -4365,11 +4387,11 @@
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A59" s="1" t="s">
-        <v>127</v>
+      <c r="A59" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>1</v>
@@ -4416,11 +4438,11 @@
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A60" s="1" t="s">
-        <v>115</v>
+      <c r="A60" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>2</v>
@@ -4467,11 +4489,11 @@
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" s="1" t="s">
-        <v>129</v>
+      <c r="A61" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>1</v>
@@ -4520,11 +4542,11 @@
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" s="1" t="s">
-        <v>129</v>
+      <c r="A62" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>1</v>
@@ -4571,11 +4593,11 @@
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" s="1" t="s">
-        <v>117</v>
+      <c r="A63" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>2</v>
@@ -4622,11 +4644,11 @@
       </c>
     </row>
     <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" s="1" t="s">
-        <v>131</v>
+      <c r="A64" s="23" t="s">
+        <v>134</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>1</v>
@@ -4675,11 +4697,11 @@
       </c>
     </row>
     <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" s="1" t="s">
-        <v>131</v>
+      <c r="A65" s="23" t="s">
+        <v>134</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>1</v>
@@ -4726,11 +4748,11 @@
       </c>
     </row>
     <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" s="1" t="s">
-        <v>133</v>
+      <c r="A66" s="23" t="s">
+        <v>135</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>1</v>
@@ -4777,11 +4799,11 @@
       </c>
     </row>
     <row r="67" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A67" s="1" t="s">
-        <v>133</v>
+      <c r="A67" s="23" t="s">
+        <v>135</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>2</v>
@@ -4828,11 +4850,11 @@
       </c>
     </row>
     <row r="68" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>111</v>
+      <c r="A68" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>1</v>
@@ -4879,11 +4901,11 @@
       </c>
     </row>
     <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" s="1" t="s">
-        <v>113</v>
+      <c r="A69" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>2</v>
@@ -4932,11 +4954,11 @@
       </c>
     </row>
     <row r="70" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A70" s="1" t="s">
-        <v>135</v>
+      <c r="A70" s="23" t="s">
+        <v>136</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>2</v>
@@ -4983,11 +5005,11 @@
       </c>
     </row>
     <row r="71" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A71" s="1" t="s">
-        <v>135</v>
+      <c r="A71" s="23" t="s">
+        <v>136</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>2</v>
@@ -5034,11 +5056,11 @@
       </c>
     </row>
     <row r="72" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A72" s="1" t="s">
-        <v>121</v>
+      <c r="A72" s="23" t="s">
+        <v>129</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>1</v>
@@ -5087,11 +5109,11 @@
       </c>
     </row>
     <row r="73" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="23" t="s">
         <v>137</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>2</v>
@@ -5140,11 +5162,11 @@
       </c>
     </row>
     <row r="74" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="23" t="s">
         <v>137</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>2</v>
@@ -5191,11 +5213,11 @@
       </c>
     </row>
     <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" s="1" t="s">
-        <v>119</v>
+      <c r="A75" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>1</v>
@@ -5242,11 +5264,11 @@
       </c>
     </row>
     <row r="76" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A76" s="1" t="s">
-        <v>81</v>
+      <c r="A76" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>2</v>
@@ -5293,11 +5315,11 @@
       </c>
     </row>
     <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" s="1" t="s">
-        <v>81</v>
+      <c r="A77" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>2</v>
@@ -5344,11 +5366,11 @@
       </c>
     </row>
     <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78" s="1" t="s">
-        <v>123</v>
+      <c r="A78" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>1</v>
@@ -5395,11 +5417,11 @@
       </c>
     </row>
     <row r="79" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A79" s="1" t="s">
-        <v>77</v>
+      <c r="A79" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>2</v>
@@ -5448,11 +5470,11 @@
       </c>
     </row>
     <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" s="1" t="s">
-        <v>77</v>
+      <c r="A80" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>1</v>
@@ -5499,11 +5521,11 @@
       </c>
     </row>
     <row r="81" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A81" s="1" t="s">
-        <v>85</v>
+      <c r="A81" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>1</v>
@@ -5552,11 +5574,11 @@
       </c>
     </row>
     <row r="82" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A82" s="1" t="s">
-        <v>85</v>
+      <c r="A82" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>1</v>
@@ -5603,11 +5625,11 @@
       </c>
     </row>
     <row r="83" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A83" s="1" t="s">
-        <v>125</v>
+      <c r="A83" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>2</v>
@@ -5654,11 +5676,11 @@
       </c>
     </row>
     <row r="84" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A84" s="1" t="s">
-        <v>127</v>
+      <c r="A84" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>1</v>
@@ -5705,11 +5727,11 @@
       </c>
     </row>
     <row r="85" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>89</v>
+      <c r="A85" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>1</v>
@@ -5758,11 +5780,11 @@
       </c>
     </row>
     <row r="86" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A86" s="1" t="s">
-        <v>89</v>
+      <c r="A86" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>2</v>
@@ -5809,11 +5831,11 @@
       </c>
     </row>
     <row r="87" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
-        <v>95</v>
+      <c r="A87" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>2</v>
@@ -5860,11 +5882,11 @@
       </c>
     </row>
     <row r="88" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
-        <v>95</v>
+      <c r="A88" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>1</v>
@@ -5911,11 +5933,11 @@
       </c>
     </row>
     <row r="89" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A89" s="1" t="s">
-        <v>129</v>
+      <c r="A89" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>2</v>
@@ -5964,11 +5986,11 @@
       </c>
     </row>
     <row r="90" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A90" s="1" t="s">
-        <v>97</v>
+      <c r="A90" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>1</v>
@@ -6017,11 +6039,11 @@
       </c>
     </row>
     <row r="91" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
-        <v>97</v>
+      <c r="A91" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>1</v>
@@ -6068,11 +6090,11 @@
       </c>
     </row>
     <row r="92" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A92" s="1" t="s">
-        <v>131</v>
+      <c r="A92" s="23" t="s">
+        <v>134</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>2</v>
@@ -6119,11 +6141,11 @@
       </c>
     </row>
     <row r="93" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="23" t="s">
         <v>137</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>1</v>
@@ -6170,11 +6192,11 @@
       </c>
     </row>
     <row r="94" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
-        <v>99</v>
+      <c r="A94" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>1</v>
@@ -6223,11 +6245,11 @@
       </c>
     </row>
     <row r="95" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A95" s="1" t="s">
-        <v>99</v>
+      <c r="A95" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>2</v>
@@ -6274,8 +6296,8 @@
       </c>
     </row>
     <row r="96" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A96" s="15" t="s">
-        <v>74</v>
+      <c r="A96" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B96" s="16" t="s">
         <v>56</v>
@@ -6308,7 +6330,7 @@
         <v>1</v>
       </c>
       <c r="L96" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M96" s="6">
         <v>0</v>
@@ -6325,11 +6347,11 @@
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A97" s="1" t="s">
-        <v>133</v>
+      <c r="A97" s="23" t="s">
+        <v>135</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>2</v>
@@ -6378,8 +6400,8 @@
       </c>
     </row>
     <row r="98" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A98" s="15" t="s">
-        <v>75</v>
+      <c r="A98" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B98" s="16" t="s">
         <v>57</v>
@@ -6429,11 +6451,11 @@
       </c>
     </row>
     <row r="99" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A99" s="1" t="s">
-        <v>135</v>
+      <c r="A99" s="23" t="s">
+        <v>136</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>2</v>
@@ -6482,11 +6504,11 @@
       </c>
     </row>
     <row r="100" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A100" s="1" t="s">
-        <v>101</v>
+      <c r="A100" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>2</v>
@@ -6535,11 +6557,11 @@
       </c>
     </row>
     <row r="101" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A101" s="1" t="s">
-        <v>101</v>
+      <c r="A101" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>2</v>
@@ -6586,8 +6608,8 @@
       </c>
     </row>
     <row r="102" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A102" s="15" t="s">
-        <v>71</v>
+      <c r="A102" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B102" s="16" t="s">
         <v>53</v>
@@ -6637,8 +6659,8 @@
       </c>
     </row>
     <row r="103" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A103" s="17" t="s">
-        <v>72</v>
+      <c r="A103" s="25" t="s">
+        <v>141</v>
       </c>
       <c r="B103" s="19" t="s">
         <v>54</v>
@@ -6688,8 +6710,8 @@
       </c>
     </row>
     <row r="104" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A104" s="15" t="s">
-        <v>69</v>
+      <c r="A104" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B104" s="16" t="s">
         <v>52</v>
@@ -6739,8 +6761,8 @@
       </c>
     </row>
     <row r="105" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A105" s="15" t="s">
-        <v>71</v>
+      <c r="A105" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B105" s="16" t="s">
         <v>53</v>
@@ -6790,11 +6812,11 @@
       </c>
     </row>
     <row r="106" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A106" s="1" t="s">
-        <v>91</v>
+      <c r="A106" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>1</v>
@@ -6843,11 +6865,11 @@
       </c>
     </row>
     <row r="107" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A107" s="1" t="s">
-        <v>91</v>
+      <c r="A107" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>1</v>
@@ -6894,11 +6916,11 @@
       </c>
     </row>
     <row r="108" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A108" s="1" t="s">
-        <v>95</v>
+      <c r="A108" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>2</v>
@@ -6945,11 +6967,11 @@
       </c>
     </row>
     <row r="109" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A109" s="1" t="s">
-        <v>140</v>
+      <c r="A109" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>1</v>
@@ -6998,11 +7020,11 @@
       </c>
     </row>
     <row r="110" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A110" s="1" t="s">
-        <v>140</v>
+      <c r="A110" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>1</v>
@@ -7049,11 +7071,11 @@
       </c>
     </row>
     <row r="111" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A111" s="1" t="s">
-        <v>85</v>
+      <c r="A111" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>2</v>
@@ -7102,11 +7124,11 @@
       </c>
     </row>
     <row r="112" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A112" s="1" t="s">
-        <v>103</v>
+      <c r="A112" s="23" t="s">
+        <v>120</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>1</v>
@@ -7153,11 +7175,11 @@
       </c>
     </row>
     <row r="113" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A113" s="1" t="s">
-        <v>103</v>
+      <c r="A113" s="23" t="s">
+        <v>120</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>2</v>
@@ -7204,11 +7226,11 @@
       </c>
     </row>
     <row r="114" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A114" s="1" t="s">
-        <v>89</v>
+      <c r="A114" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>1</v>
@@ -7255,11 +7277,11 @@
       </c>
     </row>
     <row r="115" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A115" s="1" t="s">
-        <v>93</v>
+      <c r="A115" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>2</v>
@@ -7308,11 +7330,11 @@
       </c>
     </row>
     <row r="116" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A116" s="1" t="s">
-        <v>93</v>
+      <c r="A116" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>1</v>
@@ -7359,11 +7381,11 @@
       </c>
     </row>
     <row r="117" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A117" s="1" t="s">
-        <v>99</v>
+      <c r="A117" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>1</v>
@@ -7410,11 +7432,11 @@
       </c>
     </row>
     <row r="118" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A118" s="1" t="s">
-        <v>105</v>
+      <c r="A118" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>1</v>
@@ -7461,11 +7483,11 @@
       </c>
     </row>
     <row r="119" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A119" s="1" t="s">
-        <v>105</v>
+      <c r="A119" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>2</v>
@@ -7512,11 +7534,11 @@
       </c>
     </row>
     <row r="120" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A120" s="1" t="s">
-        <v>83</v>
+      <c r="A120" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>2</v>
@@ -7565,11 +7587,11 @@
       </c>
     </row>
     <row r="121" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A121" s="1" t="s">
-        <v>83</v>
+      <c r="A121" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>2</v>
@@ -7616,11 +7638,11 @@
       </c>
     </row>
     <row r="122" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A122" s="1" t="s">
-        <v>81</v>
+      <c r="A122" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>1</v>
@@ -7667,11 +7689,11 @@
       </c>
     </row>
     <row r="123" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A123" s="1" t="s">
-        <v>101</v>
+      <c r="A123" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>2</v>
@@ -7718,11 +7740,11 @@
       </c>
     </row>
     <row r="124" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A124" s="1" t="s">
-        <v>79</v>
+      <c r="A124" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>2</v>
@@ -7771,11 +7793,11 @@
       </c>
     </row>
     <row r="125" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A125" s="1" t="s">
-        <v>79</v>
+      <c r="A125" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>2</v>
@@ -7822,11 +7844,11 @@
       </c>
     </row>
     <row r="126" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A126" s="1" t="s">
-        <v>77</v>
+      <c r="A126" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>1</v>
@@ -7875,11 +7897,11 @@
       </c>
     </row>
     <row r="127" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A127" s="1" t="s">
-        <v>97</v>
+      <c r="A127" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>2</v>
@@ -7928,11 +7950,11 @@
       </c>
     </row>
     <row r="128" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A128" s="1" t="s">
-        <v>87</v>
+      <c r="A128" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>2</v>
@@ -7981,11 +8003,11 @@
       </c>
     </row>
     <row r="129" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A129" s="1" t="s">
-        <v>87</v>
+      <c r="A129" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>1</v>
@@ -8032,11 +8054,11 @@
       </c>
     </row>
     <row r="130" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A130" s="1" t="s">
-        <v>91</v>
+      <c r="A130" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>1</v>
@@ -8083,11 +8105,11 @@
       </c>
     </row>
     <row r="131" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A131" s="1" t="s">
-        <v>119</v>
+      <c r="A131" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>2</v>
@@ -8136,11 +8158,11 @@
       </c>
     </row>
     <row r="132" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A132" s="1" t="s">
-        <v>119</v>
+      <c r="A132" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>2</v>
@@ -8187,11 +8209,11 @@
       </c>
     </row>
     <row r="133" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A133" s="1" t="s">
-        <v>140</v>
+      <c r="A133" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>1</v>
@@ -8238,11 +8260,11 @@
       </c>
     </row>
     <row r="134" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A134" s="1" t="s">
-        <v>117</v>
+      <c r="A134" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>2</v>
@@ -8291,11 +8313,11 @@
       </c>
     </row>
     <row r="135" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A135" s="1" t="s">
-        <v>117</v>
+      <c r="A135" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>2</v>
@@ -8342,11 +8364,11 @@
       </c>
     </row>
     <row r="136" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A136" s="1" t="s">
-        <v>93</v>
+      <c r="A136" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>1</v>
@@ -8393,11 +8415,11 @@
       </c>
     </row>
     <row r="137" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A137" s="1" t="s">
-        <v>121</v>
+      <c r="A137" s="23" t="s">
+        <v>129</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>2</v>
@@ -8444,11 +8466,11 @@
       </c>
     </row>
     <row r="138" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A138" s="1" t="s">
-        <v>121</v>
+      <c r="A138" s="23" t="s">
+        <v>129</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C138" s="6" t="s">
         <v>1</v>
@@ -8495,11 +8517,11 @@
       </c>
     </row>
     <row r="139" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A139" s="1" t="s">
-        <v>111</v>
+      <c r="A139" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>1</v>
@@ -8548,11 +8570,11 @@
       </c>
     </row>
     <row r="140" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A140" s="1" t="s">
-        <v>111</v>
+      <c r="A140" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>2</v>
@@ -8599,11 +8621,11 @@
       </c>
     </row>
     <row r="141" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A141" s="1" t="s">
-        <v>103</v>
+      <c r="A141" s="23" t="s">
+        <v>120</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>2</v>
@@ -8650,11 +8672,11 @@
       </c>
     </row>
     <row r="142" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A142" s="1" t="s">
-        <v>113</v>
+      <c r="A142" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>2</v>
@@ -8703,11 +8725,11 @@
       </c>
     </row>
     <row r="143" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A143" s="1" t="s">
-        <v>113</v>
+      <c r="A143" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>1</v>
@@ -8754,11 +8776,11 @@
       </c>
     </row>
     <row r="144" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A144" s="1" t="s">
-        <v>79</v>
+      <c r="A144" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>2</v>
@@ -8805,11 +8827,11 @@
       </c>
     </row>
     <row r="145" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A145" s="1" t="s">
-        <v>105</v>
+      <c r="A145" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>1</v>
@@ -8858,11 +8880,11 @@
       </c>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A146" s="1" t="s">
-        <v>109</v>
+      <c r="A146" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>1</v>
@@ -8911,11 +8933,11 @@
       </c>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A147" s="1" t="s">
-        <v>109</v>
+      <c r="A147" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>1</v>
@@ -8962,11 +8984,11 @@
       </c>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A148" s="1" t="s">
-        <v>83</v>
+      <c r="A148" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>2</v>
@@ -9013,11 +9035,11 @@
       </c>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A149" s="1" t="s">
-        <v>107</v>
+      <c r="A149" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>1</v>
@@ -9066,11 +9088,11 @@
       </c>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A150" s="1" t="s">
-        <v>107</v>
+      <c r="A150" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>1</v>
@@ -9117,8 +9139,8 @@
       </c>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A151" s="15" t="s">
-        <v>72</v>
+      <c r="A151" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="B151" s="16" t="s">
         <v>54</v>
@@ -9168,11 +9190,11 @@
       </c>
     </row>
     <row r="152" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A152" s="1" t="s">
-        <v>87</v>
+      <c r="A152" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>1</v>
@@ -9219,11 +9241,11 @@
       </c>
     </row>
     <row r="153" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A153" s="1" t="s">
-        <v>115</v>
+      <c r="A153" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>1</v>
@@ -9272,11 +9294,11 @@
       </c>
     </row>
     <row r="154" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A154" s="14" t="s">
-        <v>115</v>
+      <c r="A154" s="24" t="s">
+        <v>126</v>
       </c>
       <c r="B154" s="14" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C154" s="2" t="s">
         <v>2</v>
@@ -9323,11 +9345,11 @@
       </c>
     </row>
     <row r="155" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A155" s="1" t="s">
+      <c r="A155" s="23" t="s">
         <v>137</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>2</v>
@@ -9374,11 +9396,11 @@
       </c>
     </row>
     <row r="156" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A156" s="1" t="s">
+      <c r="A156" s="23" t="s">
         <v>137</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>1</v>
@@ -9425,8 +9447,8 @@
       </c>
     </row>
     <row r="157" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A157" s="15" t="s">
-        <v>73</v>
+      <c r="A157" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="B157" s="16" t="s">
         <v>55</v>
@@ -9476,11 +9498,11 @@
       </c>
     </row>
     <row r="158" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A158" s="1" t="s">
-        <v>127</v>
+      <c r="A158" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>1</v>
@@ -9529,11 +9551,11 @@
       </c>
     </row>
     <row r="159" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A159" s="1" t="s">
-        <v>127</v>
+      <c r="A159" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>2</v>
@@ -9580,11 +9602,11 @@
       </c>
     </row>
     <row r="160" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A160" s="1" t="s">
-        <v>119</v>
+      <c r="A160" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>2</v>
@@ -9633,11 +9655,11 @@
       </c>
     </row>
     <row r="161" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A161" s="1" t="s">
-        <v>135</v>
+      <c r="A161" s="23" t="s">
+        <v>136</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>2</v>
@@ -9686,11 +9708,11 @@
       </c>
     </row>
     <row r="162" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A162" s="1" t="s">
-        <v>135</v>
+      <c r="A162" s="23" t="s">
+        <v>136</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>1</v>
@@ -9737,11 +9759,11 @@
       </c>
     </row>
     <row r="163" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A163" s="1" t="s">
-        <v>117</v>
+      <c r="A163" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>1</v>
@@ -9788,11 +9810,11 @@
       </c>
     </row>
     <row r="164" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A164" s="1" t="s">
-        <v>111</v>
+      <c r="A164" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>2</v>
@@ -9839,11 +9861,11 @@
       </c>
     </row>
     <row r="165" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A165" s="1" t="s">
-        <v>123</v>
+      <c r="A165" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>1</v>
@@ -9892,11 +9914,11 @@
       </c>
     </row>
     <row r="166" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A166" s="1" t="s">
-        <v>123</v>
+      <c r="A166" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>1</v>
@@ -9943,11 +9965,11 @@
       </c>
     </row>
     <row r="167" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A167" s="1" t="s">
-        <v>113</v>
+      <c r="A167" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>2</v>
@@ -9994,11 +10016,11 @@
       </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
-        <v>109</v>
+      <c r="A168" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>1</v>
@@ -10047,11 +10069,11 @@
       </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A169" s="1" t="s">
-        <v>133</v>
+      <c r="A169" s="23" t="s">
+        <v>135</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>1</v>
@@ -10100,11 +10122,11 @@
       </c>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A170" s="1" t="s">
-        <v>133</v>
+      <c r="A170" s="23" t="s">
+        <v>135</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>1</v>
@@ -10151,8 +10173,8 @@
       </c>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A171" s="15" t="s">
-        <v>74</v>
+      <c r="A171" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B171" s="16" t="s">
         <v>56</v>
@@ -10185,7 +10207,7 @@
         <v>1</v>
       </c>
       <c r="L171" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M171" s="6">
         <v>0</v>
@@ -10202,11 +10224,11 @@
       </c>
     </row>
     <row r="172" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A172" s="1" t="s">
-        <v>129</v>
+      <c r="A172" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>1</v>
@@ -10253,11 +10275,11 @@
       </c>
     </row>
     <row r="173" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
-        <v>129</v>
+      <c r="A173" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>2</v>
@@ -10304,11 +10326,11 @@
       </c>
     </row>
     <row r="174" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
-        <v>121</v>
+      <c r="A174" s="23" t="s">
+        <v>129</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>1</v>
@@ -10355,11 +10377,11 @@
       </c>
     </row>
     <row r="175" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
-        <v>125</v>
+      <c r="A175" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>2</v>
@@ -10408,11 +10430,11 @@
       </c>
     </row>
     <row r="176" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
-        <v>125</v>
+      <c r="A176" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>2</v>
@@ -10459,11 +10481,11 @@
       </c>
     </row>
     <row r="177" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
-        <v>107</v>
+      <c r="A177" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>1</v>
@@ -10510,11 +10532,11 @@
       </c>
     </row>
     <row r="178" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
-        <v>115</v>
+      <c r="A178" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>2</v>
@@ -10563,11 +10585,11 @@
       </c>
     </row>
     <row r="179" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
-        <v>131</v>
+      <c r="A179" s="23" t="s">
+        <v>134</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>2</v>
@@ -10616,11 +10638,11 @@
       </c>
     </row>
     <row r="180" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
-        <v>131</v>
+      <c r="A180" s="23" t="s">
+        <v>134</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>2</v>
@@ -10667,11 +10689,11 @@
       </c>
     </row>
     <row r="181" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A181" s="1" t="s">
+      <c r="A181" s="23" t="s">
         <v>137</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>1</v>
@@ -10718,11 +10740,11 @@
       </c>
     </row>
     <row r="182" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A182" s="1" t="s">
-        <v>95</v>
+      <c r="A182" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>2</v>
@@ -10771,11 +10793,11 @@
       </c>
     </row>
     <row r="183" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A183" s="1" t="s">
-        <v>95</v>
+      <c r="A183" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>2</v>
@@ -10822,11 +10844,11 @@
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A184" s="1" t="s">
-        <v>85</v>
+      <c r="A184" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>2</v>
@@ -10873,11 +10895,11 @@
       </c>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A185" s="1" t="s">
-        <v>85</v>
+      <c r="A185" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>1</v>
@@ -10924,11 +10946,11 @@
       </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A186" s="1" t="s">
-        <v>135</v>
+      <c r="A186" s="23" t="s">
+        <v>136</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>1</v>
@@ -10977,11 +10999,11 @@
       </c>
     </row>
     <row r="187" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A187" s="1" t="s">
-        <v>127</v>
+      <c r="A187" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>2</v>
@@ -11028,11 +11050,11 @@
       </c>
     </row>
     <row r="188" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A188" s="1" t="s">
-        <v>99</v>
+      <c r="A188" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>1</v>
@@ -11081,11 +11103,11 @@
       </c>
     </row>
     <row r="189" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A189" s="1" t="s">
-        <v>99</v>
+      <c r="A189" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>1</v>
@@ -11132,11 +11154,11 @@
       </c>
     </row>
     <row r="190" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
-        <v>81</v>
+      <c r="A190" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>1</v>
@@ -11185,11 +11207,11 @@
       </c>
     </row>
     <row r="191" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
-        <v>81</v>
+      <c r="A191" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>2</v>
@@ -11236,11 +11258,11 @@
       </c>
     </row>
     <row r="192" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
-        <v>123</v>
+      <c r="A192" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>1</v>
@@ -11287,11 +11309,11 @@
       </c>
     </row>
     <row r="193" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A193" s="1" t="s">
-        <v>133</v>
+      <c r="A193" s="23" t="s">
+        <v>135</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>2</v>
@@ -11338,11 +11360,11 @@
       </c>
     </row>
     <row r="194" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A194" s="1" t="s">
-        <v>89</v>
+      <c r="A194" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>2</v>
@@ -11391,11 +11413,11 @@
       </c>
     </row>
     <row r="195" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A195" s="1" t="s">
-        <v>89</v>
+      <c r="A195" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>1</v>
@@ -11442,11 +11464,11 @@
       </c>
     </row>
     <row r="196" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A196" s="1" t="s">
-        <v>77</v>
+      <c r="A196" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>1</v>
@@ -11493,11 +11515,11 @@
       </c>
     </row>
     <row r="197" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A197" s="1" t="s">
-        <v>77</v>
+      <c r="A197" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>1</v>
@@ -11544,8 +11566,8 @@
       </c>
     </row>
     <row r="198" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A198" s="15" t="s">
-        <v>75</v>
+      <c r="A198" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B198" s="16" t="s">
         <v>57</v>
@@ -11595,11 +11617,11 @@
       </c>
     </row>
     <row r="199" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A199" s="1" t="s">
-        <v>125</v>
+      <c r="A199" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>1</v>
@@ -11646,11 +11668,11 @@
       </c>
     </row>
     <row r="200" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A200" s="1" t="s">
-        <v>101</v>
+      <c r="A200" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>1</v>
@@ -11697,11 +11719,11 @@
       </c>
     </row>
     <row r="201" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A201" s="1" t="s">
-        <v>101</v>
+      <c r="A201" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>2</v>
@@ -11748,11 +11770,11 @@
       </c>
     </row>
     <row r="202" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A202" s="1" t="s">
-        <v>97</v>
+      <c r="A202" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>2</v>
@@ -11799,11 +11821,11 @@
       </c>
     </row>
     <row r="203" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A203" s="1" t="s">
-        <v>97</v>
+      <c r="A203" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>2</v>
@@ -11850,11 +11872,11 @@
       </c>
     </row>
     <row r="204" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A204" s="1" t="s">
-        <v>131</v>
+      <c r="A204" s="23" t="s">
+        <v>134</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>1</v>
@@ -11901,11 +11923,11 @@
       </c>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A205" s="14" t="s">
-        <v>129</v>
+      <c r="A205" s="24" t="s">
+        <v>133</v>
       </c>
       <c r="B205" s="14" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="C205" s="2" t="s">
         <v>2</v>
@@ -11952,11 +11974,11 @@
       </c>
     </row>
     <row r="206" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A206" s="1" t="s">
-        <v>99</v>
+      <c r="A206" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>2</v>
@@ -12003,11 +12025,11 @@
       </c>
     </row>
     <row r="207" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A207" s="1" t="s">
-        <v>81</v>
+      <c r="A207" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>1</v>
@@ -12054,11 +12076,11 @@
       </c>
     </row>
     <row r="208" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A208" s="1" t="s">
-        <v>105</v>
+      <c r="A208" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>1</v>
@@ -12107,11 +12129,11 @@
       </c>
     </row>
     <row r="209" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A209" s="1" t="s">
-        <v>105</v>
+      <c r="A209" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>1</v>
@@ -12158,11 +12180,11 @@
       </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A210" s="1" t="s">
-        <v>95</v>
+      <c r="A210" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>2</v>
@@ -12211,11 +12233,11 @@
       </c>
     </row>
     <row r="211" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A211" s="1" t="s">
-        <v>87</v>
+      <c r="A211" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>1</v>
@@ -12264,11 +12286,11 @@
       </c>
     </row>
     <row r="212" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A212" s="1" t="s">
-        <v>87</v>
+      <c r="A212" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C212" s="6" t="s">
         <v>1</v>
@@ -12315,11 +12337,11 @@
       </c>
     </row>
     <row r="213" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A213" s="1" t="s">
-        <v>97</v>
+      <c r="A213" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C213" s="6" t="s">
         <v>2</v>
@@ -12366,11 +12388,11 @@
       </c>
     </row>
     <row r="214" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A214" s="1" t="s">
-        <v>79</v>
+      <c r="A214" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>1</v>
@@ -12419,11 +12441,11 @@
       </c>
     </row>
     <row r="215" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A215" s="1" t="s">
-        <v>79</v>
+      <c r="A215" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>2</v>
@@ -12470,11 +12492,11 @@
       </c>
     </row>
     <row r="216" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A216" s="1" t="s">
-        <v>77</v>
+      <c r="A216" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>2</v>
@@ -12523,11 +12545,11 @@
       </c>
     </row>
     <row r="217" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A217" s="1" t="s">
-        <v>103</v>
+      <c r="A217" s="23" t="s">
+        <v>120</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>2</v>
@@ -12576,11 +12598,11 @@
       </c>
     </row>
     <row r="218" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A218" s="1" t="s">
-        <v>103</v>
+      <c r="A218" s="23" t="s">
+        <v>120</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>1</v>
@@ -12627,11 +12649,11 @@
       </c>
     </row>
     <row r="219" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A219" s="1" t="s">
-        <v>140</v>
+      <c r="A219" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>1</v>
@@ -12680,11 +12702,11 @@
       </c>
     </row>
     <row r="220" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A220" s="1" t="s">
-        <v>140</v>
+      <c r="A220" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>2</v>
@@ -12731,11 +12753,11 @@
       </c>
     </row>
     <row r="221" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
-        <v>101</v>
+      <c r="A221" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>2</v>
@@ -12782,11 +12804,11 @@
       </c>
     </row>
     <row r="222" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A222" s="1" t="s">
-        <v>89</v>
+      <c r="A222" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>1</v>
@@ -12833,11 +12855,11 @@
       </c>
     </row>
     <row r="223" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A223" s="1" t="s">
-        <v>93</v>
+      <c r="A223" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>2</v>
@@ -12884,11 +12906,11 @@
       </c>
     </row>
     <row r="224" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A224" s="1" t="s">
-        <v>93</v>
+      <c r="A224" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>2</v>
@@ -12935,11 +12957,11 @@
       </c>
     </row>
     <row r="225" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A225" s="1" t="s">
-        <v>85</v>
+      <c r="A225" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>1</v>
@@ -12988,11 +13010,11 @@
       </c>
     </row>
     <row r="226" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A226" s="1" t="s">
-        <v>91</v>
+      <c r="A226" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>2</v>
@@ -13041,11 +13063,11 @@
       </c>
     </row>
     <row r="227" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A227" s="1" t="s">
-        <v>91</v>
+      <c r="A227" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>2</v>
@@ -13092,11 +13114,11 @@
       </c>
     </row>
     <row r="228" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A228" s="1" t="s">
-        <v>83</v>
+      <c r="A228" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C228" s="6" t="s">
         <v>2</v>
@@ -13145,11 +13167,11 @@
       </c>
     </row>
     <row r="229" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A229" s="1" t="s">
-        <v>83</v>
+      <c r="A229" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>1</v>
@@ -13196,11 +13218,11 @@
       </c>
     </row>
     <row r="230" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A230" s="1" t="s">
-        <v>105</v>
+      <c r="A230" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>2</v>
@@ -13247,11 +13269,11 @@
       </c>
     </row>
     <row r="231" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A231" s="1" t="s">
-        <v>115</v>
+      <c r="A231" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>2</v>
@@ -13300,11 +13322,11 @@
       </c>
     </row>
     <row r="232" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A232" s="1" t="s">
-        <v>115</v>
+      <c r="A232" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>2</v>
@@ -13351,11 +13373,11 @@
       </c>
     </row>
     <row r="233" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A233" s="1" t="s">
-        <v>91</v>
+      <c r="A233" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>1</v>
@@ -13404,11 +13426,11 @@
       </c>
     </row>
     <row r="234" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A234" s="1" t="s">
-        <v>111</v>
+      <c r="A234" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C234" s="6" t="s">
         <v>2</v>
@@ -13457,11 +13479,11 @@
       </c>
     </row>
     <row r="235" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
-        <v>111</v>
+      <c r="A235" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>2</v>
@@ -13508,11 +13530,11 @@
       </c>
     </row>
     <row r="236" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A236" s="1" t="s">
-        <v>87</v>
+      <c r="A236" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C236" s="6" t="s">
         <v>2</v>
@@ -13559,8 +13581,8 @@
       </c>
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A237" s="15" t="s">
-        <v>74</v>
+      <c r="A237" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B237" s="16" t="s">
         <v>56</v>
@@ -13593,7 +13615,7 @@
         <v>1</v>
       </c>
       <c r="L237" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M237" s="6">
         <v>0</v>
@@ -13610,11 +13632,11 @@
       </c>
     </row>
     <row r="238" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A238" s="1" t="s">
-        <v>79</v>
+      <c r="A238" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>2</v>
@@ -13663,11 +13685,11 @@
       </c>
     </row>
     <row r="239" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A239" s="1" t="s">
-        <v>109</v>
+      <c r="A239" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>2</v>
@@ -13716,11 +13738,11 @@
       </c>
     </row>
     <row r="240" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
-        <v>109</v>
+      <c r="A240" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>1</v>
@@ -13767,11 +13789,11 @@
       </c>
     </row>
     <row r="241" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A241" s="1" t="s">
-        <v>103</v>
+      <c r="A241" s="23" t="s">
+        <v>120</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>1</v>
@@ -13818,11 +13840,11 @@
       </c>
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A242" s="1" t="s">
-        <v>117</v>
+      <c r="A242" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>1</v>
@@ -13871,11 +13893,11 @@
       </c>
     </row>
     <row r="243" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A243" s="1" t="s">
-        <v>117</v>
+      <c r="A243" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>2</v>
@@ -13922,11 +13944,11 @@
       </c>
     </row>
     <row r="244" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
-        <v>140</v>
+      <c r="A244" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>2</v>
@@ -13973,11 +13995,11 @@
       </c>
     </row>
     <row r="245" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A245" s="1" t="s">
-        <v>107</v>
+      <c r="A245" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>2</v>
@@ -14026,11 +14048,11 @@
       </c>
     </row>
     <row r="246" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
-        <v>107</v>
+      <c r="A246" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C246" s="6" t="s">
         <v>1</v>
@@ -14077,11 +14099,11 @@
       </c>
     </row>
     <row r="247" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A247" s="1" t="s">
-        <v>121</v>
+      <c r="A247" s="23" t="s">
+        <v>129</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>1</v>
@@ -14128,11 +14150,11 @@
       </c>
     </row>
     <row r="248" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A248" s="1" t="s">
-        <v>121</v>
+      <c r="A248" s="23" t="s">
+        <v>129</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>1</v>
@@ -14179,11 +14201,11 @@
       </c>
     </row>
     <row r="249" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A249" s="1" t="s">
-        <v>93</v>
+      <c r="A249" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>2</v>
@@ -14230,11 +14252,11 @@
       </c>
     </row>
     <row r="250" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A250" s="1" t="s">
-        <v>113</v>
+      <c r="A250" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>1</v>
@@ -14283,11 +14305,11 @@
       </c>
     </row>
     <row r="251" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A251" s="1" t="s">
-        <v>113</v>
+      <c r="A251" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>1</v>
@@ -14334,8 +14356,8 @@
       </c>
     </row>
     <row r="252" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A252" s="15" t="s">
-        <v>73</v>
+      <c r="A252" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="B252" s="16" t="s">
         <v>55</v>
@@ -14385,11 +14407,11 @@
       </c>
     </row>
     <row r="253" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A253" s="1" t="s">
-        <v>83</v>
+      <c r="A253" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>1</v>
@@ -14436,11 +14458,11 @@
       </c>
     </row>
     <row r="254" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A254" s="1" t="s">
-        <v>119</v>
+      <c r="A254" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>1</v>
@@ -14489,11 +14511,11 @@
       </c>
     </row>
     <row r="255" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A255" s="1" t="s">
-        <v>119</v>
+      <c r="A255" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C255" s="6" t="s">
         <v>2</v>
@@ -14540,8 +14562,8 @@
       </c>
     </row>
     <row r="256" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A256" s="17" t="s">
-        <v>75</v>
+      <c r="A256" s="25" t="s">
+        <v>139</v>
       </c>
       <c r="B256" s="19" t="s">
         <v>57</v>
@@ -14591,11 +14613,11 @@
       </c>
     </row>
     <row r="257" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A257" s="1" t="s">
-        <v>133</v>
+      <c r="A257" s="23" t="s">
+        <v>135</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>2</v>
@@ -14642,11 +14664,11 @@
       </c>
     </row>
     <row r="258" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A258" s="1" t="s">
-        <v>133</v>
+      <c r="A258" s="23" t="s">
+        <v>135</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C258" s="6" t="s">
         <v>1</v>
@@ -14693,11 +14715,11 @@
       </c>
     </row>
     <row r="259" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A259" s="1" t="s">
-        <v>115</v>
+      <c r="A259" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>1</v>
@@ -14744,11 +14766,11 @@
       </c>
     </row>
     <row r="260" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A260" s="1" t="s">
+      <c r="A260" s="23" t="s">
         <v>137</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>1</v>
@@ -14797,11 +14819,11 @@
       </c>
     </row>
     <row r="261" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A261" s="1" t="s">
+      <c r="A261" s="23" t="s">
         <v>137</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>2</v>
@@ -14848,11 +14870,11 @@
       </c>
     </row>
     <row r="262" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A262" s="1" t="s">
-        <v>111</v>
+      <c r="A262" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>2</v>
@@ -14901,11 +14923,11 @@
       </c>
     </row>
     <row r="263" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A263" s="1" t="s">
-        <v>125</v>
+      <c r="A263" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C263" s="6" t="s">
         <v>2</v>
@@ -14954,11 +14976,11 @@
       </c>
     </row>
     <row r="264" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A264" s="1" t="s">
-        <v>125</v>
+      <c r="A264" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>1</v>
@@ -15005,11 +15027,11 @@
       </c>
     </row>
     <row r="265" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A265" s="1" t="s">
-        <v>109</v>
+      <c r="A265" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>2</v>
@@ -15056,11 +15078,11 @@
       </c>
     </row>
     <row r="266" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A266" s="1" t="s">
-        <v>135</v>
+      <c r="A266" s="23" t="s">
+        <v>136</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>1</v>
@@ -15109,11 +15131,11 @@
       </c>
     </row>
     <row r="267" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A267" s="1" t="s">
-        <v>135</v>
+      <c r="A267" s="23" t="s">
+        <v>136</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="C267" s="6" t="s">
         <v>1</v>
@@ -15160,11 +15182,11 @@
       </c>
     </row>
     <row r="268" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A268" s="1" t="s">
-        <v>117</v>
+      <c r="A268" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>1</v>
@@ -15211,11 +15233,11 @@
       </c>
     </row>
     <row r="269" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A269" s="1" t="s">
-        <v>107</v>
+      <c r="A269" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C269" s="6" t="s">
         <v>2</v>
@@ -15264,11 +15286,11 @@
       </c>
     </row>
     <row r="270" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A270" s="1" t="s">
-        <v>127</v>
+      <c r="A270" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C270" s="6" t="s">
         <v>1</v>
@@ -15317,11 +15339,11 @@
       </c>
     </row>
     <row r="271" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A271" s="1" t="s">
-        <v>127</v>
+      <c r="A271" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C271" s="6" t="s">
         <v>1</v>
@@ -15368,11 +15390,11 @@
       </c>
     </row>
     <row r="272" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A272" s="1" t="s">
-        <v>131</v>
+      <c r="A272" s="23" t="s">
+        <v>134</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C272" s="6" t="s">
         <v>1</v>
@@ -15421,11 +15443,11 @@
       </c>
     </row>
     <row r="273" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A273" s="1" t="s">
-        <v>131</v>
+      <c r="A273" s="23" t="s">
+        <v>134</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C273" s="6" t="s">
         <v>2</v>
@@ -15472,11 +15494,11 @@
       </c>
     </row>
     <row r="274" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A274" s="1" t="s">
-        <v>113</v>
+      <c r="A274" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C274" s="6" t="s">
         <v>1</v>
@@ -15523,11 +15545,11 @@
       </c>
     </row>
     <row r="275" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A275" s="1" t="s">
-        <v>121</v>
+      <c r="A275" s="23" t="s">
+        <v>129</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C275" s="6" t="s">
         <v>2</v>
@@ -15574,11 +15596,11 @@
       </c>
     </row>
     <row r="276" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A276" s="1" t="s">
-        <v>129</v>
+      <c r="A276" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="C276" s="6" t="s">
         <v>2</v>
@@ -15625,11 +15647,11 @@
       </c>
     </row>
     <row r="277" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A277" s="1" t="s">
-        <v>129</v>
+      <c r="A277" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="C277" s="6" t="s">
         <v>2</v>
@@ -15676,11 +15698,11 @@
       </c>
     </row>
     <row r="278" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A278" s="1" t="s">
-        <v>119</v>
+      <c r="A278" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C278" s="6" t="s">
         <v>1</v>
@@ -15727,11 +15749,11 @@
       </c>
     </row>
     <row r="279" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A279" s="1" t="s">
-        <v>123</v>
+      <c r="A279" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C279" s="6" t="s">
         <v>2</v>
@@ -15780,11 +15802,11 @@
       </c>
     </row>
     <row r="280" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A280" s="1" t="s">
-        <v>123</v>
+      <c r="A280" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C280" s="6" t="s">
         <v>2</v>
@@ -15831,11 +15853,11 @@
       </c>
     </row>
     <row r="281" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A281" s="1" t="s">
+      <c r="A281" s="23" t="s">
         <v>137</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C281" s="6" t="s">
         <v>2</v>
@@ -15884,8 +15906,8 @@
       </c>
     </row>
     <row r="282" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A282" s="15" t="s">
-        <v>69</v>
+      <c r="A282" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B282" s="16" t="s">
         <v>52</v>
@@ -15935,11 +15957,11 @@
       </c>
     </row>
     <row r="283" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A283" s="1" t="s">
-        <v>129</v>
+      <c r="A283" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="C283" s="6" t="s">
         <v>1</v>
@@ -15988,11 +16010,11 @@
       </c>
     </row>
     <row r="284" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A284" s="1" t="s">
-        <v>77</v>
+      <c r="A284" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C284" s="6" t="s">
         <v>2</v>
@@ -16039,11 +16061,11 @@
       </c>
     </row>
     <row r="285" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A285" s="1" t="s">
-        <v>77</v>
+      <c r="A285" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>2</v>
@@ -16090,11 +16112,11 @@
       </c>
     </row>
     <row r="286" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A286" s="1" t="s">
-        <v>99</v>
+      <c r="A286" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C286" s="6" t="s">
         <v>2</v>
@@ -16143,11 +16165,11 @@
       </c>
     </row>
     <row r="287" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A287" s="1" t="s">
-        <v>99</v>
+      <c r="A287" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C287" s="6" t="s">
         <v>1</v>
@@ -16194,11 +16216,11 @@
       </c>
     </row>
     <row r="288" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A288" s="1" t="s">
-        <v>125</v>
+      <c r="A288" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C288" s="6" t="s">
         <v>2</v>
@@ -16245,11 +16267,11 @@
       </c>
     </row>
     <row r="289" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A289" s="1" t="s">
-        <v>89</v>
+      <c r="A289" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C289" s="6" t="s">
         <v>1</v>
@@ -16298,11 +16320,11 @@
       </c>
     </row>
     <row r="290" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A290" s="1" t="s">
-        <v>89</v>
+      <c r="A290" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C290" s="6" t="s">
         <v>1</v>
@@ -16349,11 +16371,11 @@
       </c>
     </row>
     <row r="291" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A291" s="1" t="s">
-        <v>95</v>
+      <c r="A291" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C291" s="6" t="s">
         <v>1</v>
@@ -16400,11 +16422,11 @@
       </c>
     </row>
     <row r="292" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A292" s="1" t="s">
-        <v>95</v>
+      <c r="A292" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C292" s="6" t="s">
         <v>2</v>
@@ -16451,11 +16473,11 @@
       </c>
     </row>
     <row r="293" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A293" s="1" t="s">
-        <v>135</v>
+      <c r="A293" s="23" t="s">
+        <v>136</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="C293" s="6" t="s">
         <v>1</v>
@@ -16502,11 +16524,11 @@
       </c>
     </row>
     <row r="294" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A294" s="1" t="s">
-        <v>81</v>
+      <c r="A294" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C294" s="6" t="s">
         <v>2</v>
@@ -16555,11 +16577,11 @@
       </c>
     </row>
     <row r="295" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A295" s="1" t="s">
-        <v>81</v>
+      <c r="A295" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C295" s="6" t="s">
         <v>1</v>
@@ -16606,8 +16628,8 @@
       </c>
     </row>
     <row r="296" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A296" s="15" t="s">
-        <v>71</v>
+      <c r="A296" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B296" s="16" t="s">
         <v>53</v>
@@ -16657,11 +16679,11 @@
       </c>
     </row>
     <row r="297" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A297" s="1" t="s">
-        <v>127</v>
+      <c r="A297" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C297" s="6" t="s">
         <v>1</v>
@@ -16708,11 +16730,11 @@
       </c>
     </row>
     <row r="298" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A298" s="1" t="s">
-        <v>101</v>
+      <c r="A298" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C298" s="6" t="s">
         <v>1</v>
@@ -16761,11 +16783,11 @@
       </c>
     </row>
     <row r="299" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A299" s="1" t="s">
-        <v>101</v>
+      <c r="A299" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C299" s="6" t="s">
         <v>1</v>
@@ -16812,11 +16834,11 @@
       </c>
     </row>
     <row r="300" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A300" s="1" t="s">
-        <v>131</v>
+      <c r="A300" s="23" t="s">
+        <v>134</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C300" s="6" t="s">
         <v>2</v>
@@ -16865,11 +16887,11 @@
       </c>
     </row>
     <row r="301" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A301" s="1" t="s">
-        <v>133</v>
+      <c r="A301" s="23" t="s">
+        <v>135</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C301" s="6" t="s">
         <v>1</v>
@@ -16916,11 +16938,11 @@
       </c>
     </row>
     <row r="302" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A302" s="1" t="s">
-        <v>97</v>
+      <c r="A302" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C302" s="6" t="s">
         <v>1</v>
@@ -16969,11 +16991,11 @@
       </c>
     </row>
     <row r="303" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A303" s="1" t="s">
-        <v>97</v>
+      <c r="A303" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>2</v>
@@ -17020,8 +17042,8 @@
       </c>
     </row>
     <row r="304" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A304" s="15" t="s">
-        <v>72</v>
+      <c r="A304" s="22" t="s">
+        <v>141</v>
       </c>
       <c r="B304" s="16" t="s">
         <v>54</v>
@@ -17071,11 +17093,11 @@
       </c>
     </row>
     <row r="305" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A305" s="1" t="s">
-        <v>123</v>
+      <c r="A305" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C305" s="6" t="s">
         <v>2</v>
@@ -17122,11 +17144,11 @@
       </c>
     </row>
     <row r="306" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A306" s="1" t="s">
-        <v>85</v>
+      <c r="A306" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C306" s="6" t="s">
         <v>2</v>
@@ -17175,11 +17197,11 @@
       </c>
     </row>
     <row r="307" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A307" s="14" t="s">
-        <v>85</v>
+      <c r="A307" s="24" t="s">
+        <v>110</v>
       </c>
       <c r="B307" s="14" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>2</v>
@@ -17226,8 +17248,8 @@
       </c>
     </row>
     <row r="308" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A308" s="15" t="s">
-        <v>75</v>
+      <c r="A308" s="22" t="s">
+        <v>139</v>
       </c>
       <c r="B308" s="16" t="s">
         <v>57</v>
@@ -17277,11 +17299,11 @@
       </c>
     </row>
     <row r="309" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A309" s="1" t="s">
-        <v>93</v>
+      <c r="A309" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C309" s="6" t="s">
         <v>1</v>
@@ -17330,11 +17352,11 @@
       </c>
     </row>
     <row r="310" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A310" s="1" t="s">
-        <v>93</v>
+      <c r="A310" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C310" s="6" t="s">
         <v>1</v>
@@ -17381,11 +17403,11 @@
       </c>
     </row>
     <row r="311" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A311" s="1" t="s">
-        <v>99</v>
+      <c r="A311" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C311" s="6" t="s">
         <v>2</v>
@@ -17432,11 +17454,11 @@
       </c>
     </row>
     <row r="312" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A312" s="1" t="s">
-        <v>103</v>
+      <c r="A312" s="23" t="s">
+        <v>120</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C312" s="6" t="s">
         <v>1</v>
@@ -17485,11 +17507,11 @@
       </c>
     </row>
     <row r="313" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A313" s="1" t="s">
-        <v>103</v>
+      <c r="A313" s="23" t="s">
+        <v>120</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C313" s="6" t="s">
         <v>1</v>
@@ -17536,8 +17558,8 @@
       </c>
     </row>
     <row r="314" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A314" s="15" t="s">
-        <v>74</v>
+      <c r="A314" s="22" t="s">
+        <v>138</v>
       </c>
       <c r="B314" s="16" t="s">
         <v>56</v>
@@ -17570,7 +17592,7 @@
         <v>1</v>
       </c>
       <c r="L314" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="M314" s="6">
         <v>0</v>
@@ -17587,11 +17609,11 @@
       </c>
     </row>
     <row r="315" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A315" s="1" t="s">
-        <v>97</v>
+      <c r="A315" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C315" s="6" t="s">
         <v>1</v>
@@ -17638,11 +17660,11 @@
       </c>
     </row>
     <row r="316" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A316" s="1" t="s">
-        <v>83</v>
+      <c r="A316" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C316" s="6" t="s">
         <v>1</v>
@@ -17691,11 +17713,11 @@
       </c>
     </row>
     <row r="317" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A317" s="1" t="s">
-        <v>83</v>
+      <c r="A317" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C317" s="6" t="s">
         <v>2</v>
@@ -17742,11 +17764,11 @@
       </c>
     </row>
     <row r="318" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A318" s="1" t="s">
-        <v>81</v>
+      <c r="A318" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>2</v>
@@ -17795,11 +17817,11 @@
       </c>
     </row>
     <row r="319" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A319" s="1" t="s">
-        <v>140</v>
+      <c r="A319" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C319" s="6" t="s">
         <v>2</v>
@@ -17848,11 +17870,11 @@
       </c>
     </row>
     <row r="320" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A320" s="1" t="s">
-        <v>140</v>
+      <c r="A320" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C320" s="6" t="s">
         <v>1</v>
@@ -17899,11 +17921,11 @@
       </c>
     </row>
     <row r="321" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A321" s="1" t="s">
-        <v>91</v>
+      <c r="A321" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C321" s="6" t="s">
         <v>1</v>
@@ -17950,11 +17972,11 @@
       </c>
     </row>
     <row r="322" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A322" s="1" t="s">
-        <v>91</v>
+      <c r="A322" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C322" s="6" t="s">
         <v>2</v>
@@ -18001,11 +18023,11 @@
       </c>
     </row>
     <row r="323" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A323" s="1" t="s">
-        <v>85</v>
+      <c r="A323" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>1</v>
@@ -18052,11 +18074,11 @@
       </c>
     </row>
     <row r="324" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A324" s="1" t="s">
-        <v>87</v>
+      <c r="A324" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C324" s="6" t="s">
         <v>2</v>
@@ -18105,11 +18127,11 @@
       </c>
     </row>
     <row r="325" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A325" s="1" t="s">
-        <v>87</v>
+      <c r="A325" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C325" s="6" t="s">
         <v>2</v>
@@ -18156,11 +18178,11 @@
       </c>
     </row>
     <row r="326" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A326" s="1" t="s">
-        <v>101</v>
+      <c r="A326" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C326" s="6" t="s">
         <v>1</v>
@@ -18209,11 +18231,11 @@
       </c>
     </row>
     <row r="327" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A327" s="1" t="s">
-        <v>105</v>
+      <c r="A327" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C327" s="6" t="s">
         <v>2</v>
@@ -18262,11 +18284,11 @@
       </c>
     </row>
     <row r="328" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A328" s="1" t="s">
-        <v>105</v>
+      <c r="A328" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C328" s="6" t="s">
         <v>2</v>
@@ -18313,11 +18335,11 @@
       </c>
     </row>
     <row r="329" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A329" s="1" t="s">
-        <v>95</v>
+      <c r="A329" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C329" s="6" t="s">
         <v>1</v>
@@ -18364,11 +18386,11 @@
       </c>
     </row>
     <row r="330" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A330" s="1" t="s">
-        <v>77</v>
+      <c r="A330" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C330" s="6" t="s">
         <v>2</v>
@@ -18415,11 +18437,11 @@
       </c>
     </row>
     <row r="331" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A331" s="1" t="s">
-        <v>79</v>
+      <c r="A331" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C331" s="6" t="s">
         <v>2</v>
@@ -18466,11 +18488,11 @@
       </c>
     </row>
     <row r="332" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A332" s="1" t="s">
-        <v>79</v>
+      <c r="A332" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C332" s="6" t="s">
         <v>1</v>
@@ -18517,11 +18539,11 @@
       </c>
     </row>
     <row r="333" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A333" s="1" t="s">
-        <v>89</v>
+      <c r="A333" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C333" s="6" t="s">
         <v>2</v>
@@ -18570,11 +18592,11 @@
       </c>
     </row>
     <row r="334" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A334" s="1" t="s">
-        <v>113</v>
+      <c r="A334" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C334" s="6" t="s">
         <v>2</v>
@@ -18621,11 +18643,11 @@
       </c>
     </row>
     <row r="335" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A335" s="1" t="s">
-        <v>113</v>
+      <c r="A335" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C335" s="6" t="s">
         <v>2</v>
@@ -18672,11 +18694,11 @@
       </c>
     </row>
     <row r="336" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A336" s="1" t="s">
-        <v>93</v>
+      <c r="A336" s="23" t="s">
+        <v>114</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="C336" s="6" t="s">
         <v>1</v>
@@ -18723,11 +18745,11 @@
       </c>
     </row>
     <row r="337" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A337" s="1" t="s">
-        <v>121</v>
+      <c r="A337" s="23" t="s">
+        <v>129</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C337" s="6" t="s">
         <v>2</v>
@@ -18776,11 +18798,11 @@
       </c>
     </row>
     <row r="338" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A338" s="1" t="s">
-        <v>121</v>
+      <c r="A338" s="23" t="s">
+        <v>129</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C338" s="6" t="s">
         <v>2</v>
@@ -18827,11 +18849,11 @@
       </c>
     </row>
     <row r="339" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A339" s="1" t="s">
-        <v>119</v>
+      <c r="A339" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C339" s="6" t="s">
         <v>2</v>
@@ -18878,11 +18900,11 @@
       </c>
     </row>
     <row r="340" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A340" s="1" t="s">
-        <v>119</v>
+      <c r="A340" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C340" s="6" t="s">
         <v>1</v>
@@ -18929,11 +18951,11 @@
       </c>
     </row>
     <row r="341" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A341" s="1" t="s">
-        <v>103</v>
+      <c r="A341" s="23" t="s">
+        <v>120</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="C341" s="6" t="s">
         <v>1</v>
@@ -18982,11 +19004,11 @@
       </c>
     </row>
     <row r="342" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A342" s="1" t="s">
-        <v>107</v>
+      <c r="A342" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C342" s="6" t="s">
         <v>1</v>
@@ -19035,11 +19057,11 @@
       </c>
     </row>
     <row r="343" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A343" s="1" t="s">
-        <v>107</v>
+      <c r="A343" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C343" s="6" t="s">
         <v>2</v>
@@ -19086,11 +19108,11 @@
       </c>
     </row>
     <row r="344" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A344" s="1" t="s">
-        <v>117</v>
+      <c r="A344" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="B344" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C344" s="6" t="s">
         <v>2</v>
@@ -19139,11 +19161,11 @@
       </c>
     </row>
     <row r="345" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A345" s="1" t="s">
-        <v>117</v>
+      <c r="A345" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C345" s="6" t="s">
         <v>1</v>
@@ -19190,11 +19212,11 @@
       </c>
     </row>
     <row r="346" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A346" s="1" t="s">
-        <v>83</v>
+      <c r="A346" s="23" t="s">
+        <v>109</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="C346" s="6" t="s">
         <v>2</v>
@@ -19241,11 +19263,11 @@
       </c>
     </row>
     <row r="347" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A347" s="1" t="s">
-        <v>140</v>
+      <c r="A347" s="23" t="s">
+        <v>117</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>139</v>
+        <v>102</v>
       </c>
       <c r="C347" s="6" t="s">
         <v>1</v>
@@ -19292,11 +19314,11 @@
       </c>
     </row>
     <row r="348" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A348" s="1" t="s">
-        <v>105</v>
+      <c r="A348" s="23" t="s">
+        <v>121</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
       <c r="C348" s="6" t="s">
         <v>2</v>
@@ -19343,11 +19365,11 @@
       </c>
     </row>
     <row r="349" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A349" s="1" t="s">
-        <v>111</v>
+      <c r="A349" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C349" s="6" t="s">
         <v>1</v>
@@ -19396,11 +19418,11 @@
       </c>
     </row>
     <row r="350" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A350" s="1" t="s">
-        <v>111</v>
+      <c r="A350" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C350" s="6" t="s">
         <v>1</v>
@@ -19447,11 +19469,11 @@
       </c>
     </row>
     <row r="351" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A351" s="1" t="s">
-        <v>91</v>
+      <c r="A351" s="23" t="s">
+        <v>113</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="C351" s="6" t="s">
         <v>2</v>
@@ -19498,11 +19520,11 @@
       </c>
     </row>
     <row r="352" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A352" s="1" t="s">
-        <v>115</v>
+      <c r="A352" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C352" s="6" t="s">
         <v>1</v>
@@ -19551,11 +19573,11 @@
       </c>
     </row>
     <row r="353" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A353" s="1" t="s">
-        <v>115</v>
+      <c r="A353" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C353" s="6" t="s">
         <v>1</v>
@@ -19602,11 +19624,11 @@
       </c>
     </row>
     <row r="354" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A354" s="1" t="s">
-        <v>87</v>
+      <c r="A354" s="23" t="s">
+        <v>111</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="C354" s="6" t="s">
         <v>2</v>
@@ -19653,11 +19675,11 @@
       </c>
     </row>
     <row r="355" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A355" s="1" t="s">
-        <v>79</v>
+      <c r="A355" s="23" t="s">
+        <v>107</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C355" s="6" t="s">
         <v>1</v>
@@ -19704,11 +19726,11 @@
       </c>
     </row>
     <row r="356" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A356" s="1" t="s">
-        <v>109</v>
+      <c r="A356" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C356" s="6" t="s">
         <v>1</v>
@@ -19755,11 +19777,11 @@
       </c>
     </row>
     <row r="357" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A357" s="1" t="s">
-        <v>109</v>
+      <c r="A357" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C357" s="6" t="s">
         <v>2</v>
@@ -19806,8 +19828,8 @@
       </c>
     </row>
     <row r="358" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A358" s="17" t="s">
-        <v>72</v>
+      <c r="A358" s="25" t="s">
+        <v>141</v>
       </c>
       <c r="B358" s="19" t="s">
         <v>54</v>
@@ -19857,11 +19879,11 @@
       </c>
     </row>
     <row r="359" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A359" s="1" t="s">
-        <v>109</v>
+      <c r="A359" s="23" t="s">
+        <v>123</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="C359" s="6" t="s">
         <v>2</v>
@@ -19908,11 +19930,11 @@
       </c>
     </row>
     <row r="360" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A360" s="1" t="s">
-        <v>129</v>
+      <c r="A360" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="C360" s="6" t="s">
         <v>2</v>
@@ -19961,11 +19983,11 @@
       </c>
     </row>
     <row r="361" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A361" s="1" t="s">
-        <v>129</v>
+      <c r="A361" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="C361" s="6" t="s">
         <v>1</v>
@@ -20012,11 +20034,11 @@
       </c>
     </row>
     <row r="362" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A362" s="1" t="s">
-        <v>113</v>
+      <c r="A362" s="23" t="s">
+        <v>125</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>114</v>
+        <v>89</v>
       </c>
       <c r="C362" s="6" t="s">
         <v>1</v>
@@ -20063,11 +20085,11 @@
       </c>
     </row>
     <row r="363" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A363" s="1" t="s">
-        <v>123</v>
+      <c r="A363" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C363" s="6" t="s">
         <v>1</v>
@@ -20116,11 +20138,11 @@
       </c>
     </row>
     <row r="364" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A364" s="1" t="s">
-        <v>123</v>
+      <c r="A364" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C364" s="6" t="s">
         <v>2</v>
@@ -20167,8 +20189,8 @@
       </c>
     </row>
     <row r="365" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A365" s="15" t="s">
-        <v>71</v>
+      <c r="A365" s="22" t="s">
+        <v>140</v>
       </c>
       <c r="B365" s="16" t="s">
         <v>53</v>
@@ -20218,11 +20240,11 @@
       </c>
     </row>
     <row r="366" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A366" s="1" t="s">
-        <v>131</v>
+      <c r="A366" s="23" t="s">
+        <v>134</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C366" s="6" t="s">
         <v>2</v>
@@ -20269,11 +20291,11 @@
       </c>
     </row>
     <row r="367" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A367" s="1" t="s">
-        <v>131</v>
+      <c r="A367" s="23" t="s">
+        <v>134</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C367" s="6" t="s">
         <v>1</v>
@@ -20320,11 +20342,11 @@
       </c>
     </row>
     <row r="368" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A368" s="1" t="s">
-        <v>119</v>
+      <c r="A368" s="23" t="s">
+        <v>128</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>120</v>
+        <v>92</v>
       </c>
       <c r="C368" s="6" t="s">
         <v>2</v>
@@ -20371,11 +20393,11 @@
       </c>
     </row>
     <row r="369" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A369" s="1" t="s">
-        <v>125</v>
+      <c r="A369" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C369" s="6" t="s">
         <v>1</v>
@@ -20424,11 +20446,11 @@
       </c>
     </row>
     <row r="370" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A370" s="1" t="s">
-        <v>125</v>
+      <c r="A370" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C370" s="6" t="s">
         <v>1</v>
@@ -20475,11 +20497,11 @@
       </c>
     </row>
     <row r="371" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A371" s="1" t="s">
-        <v>107</v>
+      <c r="A371" s="23" t="s">
+        <v>122</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>108</v>
+        <v>86</v>
       </c>
       <c r="C371" s="6" t="s">
         <v>1</v>
@@ -20526,11 +20548,11 @@
       </c>
     </row>
     <row r="372" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A372" s="1" t="s">
-        <v>117</v>
+      <c r="A372" s="23" t="s">
+        <v>127</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>118</v>
+        <v>91</v>
       </c>
       <c r="C372" s="6" t="s">
         <v>2</v>
@@ -20577,11 +20599,11 @@
       </c>
     </row>
     <row r="373" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A373" s="1" t="s">
+      <c r="A373" s="23" t="s">
         <v>137</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C373" s="6" t="s">
         <v>1</v>
@@ -20630,11 +20652,11 @@
       </c>
     </row>
     <row r="374" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A374" s="1" t="s">
+      <c r="A374" s="23" t="s">
         <v>137</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C374" s="6" t="s">
         <v>1</v>
@@ -20681,11 +20703,11 @@
       </c>
     </row>
     <row r="375" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A375" s="1" t="s">
-        <v>135</v>
+      <c r="A375" s="23" t="s">
+        <v>136</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="C375" s="6" t="s">
         <v>1</v>
@@ -20732,11 +20754,11 @@
       </c>
     </row>
     <row r="376" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A376" s="1" t="s">
-        <v>135</v>
+      <c r="A376" s="23" t="s">
+        <v>136</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="C376" s="6" t="s">
         <v>2</v>
@@ -20783,11 +20805,11 @@
       </c>
     </row>
     <row r="377" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A377" s="1" t="s">
-        <v>111</v>
+      <c r="A377" s="23" t="s">
+        <v>124</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>112</v>
+        <v>88</v>
       </c>
       <c r="C377" s="6" t="s">
         <v>1</v>
@@ -20834,8 +20856,8 @@
       </c>
     </row>
     <row r="378" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A378" s="15" t="s">
-        <v>73</v>
+      <c r="A378" s="22" t="s">
+        <v>104</v>
       </c>
       <c r="B378" s="16" t="s">
         <v>55</v>
@@ -20885,11 +20907,11 @@
       </c>
     </row>
     <row r="379" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A379" s="1" t="s">
-        <v>133</v>
+      <c r="A379" s="23" t="s">
+        <v>135</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C379" s="6" t="s">
         <v>2</v>
@@ -20938,11 +20960,11 @@
       </c>
     </row>
     <row r="380" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A380" s="1" t="s">
-        <v>133</v>
+      <c r="A380" s="23" t="s">
+        <v>135</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C380" s="6" t="s">
         <v>2</v>
@@ -20989,11 +21011,11 @@
       </c>
     </row>
     <row r="381" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A381" s="1" t="s">
-        <v>115</v>
+      <c r="A381" s="23" t="s">
+        <v>126</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>116</v>
+        <v>90</v>
       </c>
       <c r="C381" s="6" t="s">
         <v>1</v>
@@ -21040,11 +21062,11 @@
       </c>
     </row>
     <row r="382" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A382" s="1" t="s">
-        <v>127</v>
+      <c r="A382" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C382" s="6" t="s">
         <v>2</v>
@@ -21093,11 +21115,11 @@
       </c>
     </row>
     <row r="383" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A383" s="1" t="s">
-        <v>127</v>
+      <c r="A383" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C383" s="6" t="s">
         <v>2</v>
@@ -21144,11 +21166,11 @@
       </c>
     </row>
     <row r="384" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A384" s="1" t="s">
-        <v>121</v>
+      <c r="A384" s="23" t="s">
+        <v>129</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>122</v>
+        <v>93</v>
       </c>
       <c r="C384" s="6" t="s">
         <v>2</v>
@@ -21197,11 +21219,11 @@
       </c>
     </row>
     <row r="385" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A385" s="1" t="s">
-        <v>129</v>
+      <c r="A385" s="23" t="s">
+        <v>133</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>130</v>
+        <v>97</v>
       </c>
       <c r="C385" s="6" t="s">
         <v>1</v>
@@ -21248,11 +21270,11 @@
       </c>
     </row>
     <row r="386" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A386" s="1" t="s">
-        <v>99</v>
+      <c r="A386" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C386" s="6" t="s">
         <v>2</v>
@@ -21301,11 +21323,11 @@
       </c>
     </row>
     <row r="387" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A387" s="1" t="s">
-        <v>99</v>
+      <c r="A387" s="23" t="s">
+        <v>118</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="C387" s="6" t="s">
         <v>2</v>
@@ -21352,11 +21374,11 @@
       </c>
     </row>
     <row r="388" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A388" s="1" t="s">
-        <v>97</v>
+      <c r="A388" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C388" s="6" t="s">
         <v>2</v>
@@ -21405,11 +21427,11 @@
       </c>
     </row>
     <row r="389" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A389" s="1" t="s">
-        <v>97</v>
+      <c r="A389" s="23" t="s">
+        <v>116</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>98</v>
+        <v>81</v>
       </c>
       <c r="C389" s="6" t="s">
         <v>1</v>
@@ -21456,11 +21478,11 @@
       </c>
     </row>
     <row r="390" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A390" s="1" t="s">
-        <v>123</v>
+      <c r="A390" s="23" t="s">
+        <v>130</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="C390" s="6" t="s">
         <v>2</v>
@@ -21507,11 +21529,11 @@
       </c>
     </row>
     <row r="391" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A391" s="1" t="s">
-        <v>81</v>
+      <c r="A391" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C391" s="6" t="s">
         <v>1</v>
@@ -21560,11 +21582,11 @@
       </c>
     </row>
     <row r="392" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A392" s="1" t="s">
-        <v>81</v>
+      <c r="A392" s="23" t="s">
+        <v>108</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="C392" s="6" t="s">
         <v>1</v>
@@ -21611,11 +21633,11 @@
       </c>
     </row>
     <row r="393" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A393" s="1" t="s">
-        <v>85</v>
+      <c r="A393" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C393" s="6" t="s">
         <v>1</v>
@@ -21662,11 +21684,11 @@
       </c>
     </row>
     <row r="394" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A394" s="1" t="s">
-        <v>85</v>
+      <c r="A394" s="23" t="s">
+        <v>110</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C394" s="6" t="s">
         <v>2</v>
@@ -21713,11 +21735,11 @@
       </c>
     </row>
     <row r="395" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A395" s="1" t="s">
-        <v>131</v>
+      <c r="A395" s="23" t="s">
+        <v>134</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>132</v>
+        <v>98</v>
       </c>
       <c r="C395" s="6" t="s">
         <v>1</v>
@@ -21764,11 +21786,11 @@
       </c>
     </row>
     <row r="396" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A396" s="1" t="s">
-        <v>101</v>
+      <c r="A396" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C396" s="6" t="s">
         <v>2</v>
@@ -21817,11 +21839,11 @@
       </c>
     </row>
     <row r="397" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A397" s="1" t="s">
-        <v>101</v>
+      <c r="A397" s="23" t="s">
+        <v>119</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>102</v>
+        <v>83</v>
       </c>
       <c r="C397" s="6" t="s">
         <v>1</v>
@@ -21868,11 +21890,11 @@
       </c>
     </row>
     <row r="398" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A398" s="1" t="s">
+      <c r="A398" s="23" t="s">
         <v>137</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>138</v>
+        <v>101</v>
       </c>
       <c r="C398" s="6" t="s">
         <v>2</v>
@@ -21919,11 +21941,11 @@
       </c>
     </row>
     <row r="399" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A399" s="1" t="s">
-        <v>125</v>
+      <c r="A399" s="23" t="s">
+        <v>131</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>126</v>
+        <v>95</v>
       </c>
       <c r="C399" s="6" t="s">
         <v>1</v>
@@ -21970,11 +21992,11 @@
       </c>
     </row>
     <row r="400" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A400" s="1" t="s">
-        <v>95</v>
+      <c r="A400" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C400" s="6" t="s">
         <v>1</v>
@@ -22023,11 +22045,11 @@
       </c>
     </row>
     <row r="401" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A401" s="1" t="s">
-        <v>95</v>
+      <c r="A401" s="23" t="s">
+        <v>115</v>
       </c>
       <c r="B401" s="1" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C401" s="6" t="s">
         <v>1</v>
@@ -22074,11 +22096,11 @@
       </c>
     </row>
     <row r="402" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A402" s="1" t="s">
-        <v>135</v>
+      <c r="A402" s="23" t="s">
+        <v>136</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="C402" s="6" t="s">
         <v>2</v>
@@ -22125,11 +22147,11 @@
       </c>
     </row>
     <row r="403" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A403" s="1" t="s">
-        <v>133</v>
+      <c r="A403" s="23" t="s">
+        <v>135</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>134</v>
+        <v>99</v>
       </c>
       <c r="C403" s="6" t="s">
         <v>1</v>
@@ -22178,11 +22200,11 @@
       </c>
     </row>
     <row r="404" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A404" s="1" t="s">
-        <v>77</v>
+      <c r="A404" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C404" s="6" t="s">
         <v>1</v>
@@ -22231,11 +22253,11 @@
       </c>
     </row>
     <row r="405" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A405" s="1" t="s">
-        <v>77</v>
+      <c r="A405" s="23" t="s">
+        <v>106</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C405" s="6" t="s">
         <v>2</v>
@@ -22282,11 +22304,11 @@
       </c>
     </row>
     <row r="406" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A406" s="1" t="s">
-        <v>89</v>
+      <c r="A406" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C406" s="6" t="s">
         <v>2</v>
@@ -22333,11 +22355,11 @@
       </c>
     </row>
     <row r="407" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A407" s="1" t="s">
-        <v>89</v>
+      <c r="A407" s="23" t="s">
+        <v>112</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="C407" s="6" t="s">
         <v>2</v>
@@ -22384,8 +22406,8 @@
       </c>
     </row>
     <row r="408" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A408" s="15" t="s">
-        <v>69</v>
+      <c r="A408" s="22" t="s">
+        <v>105</v>
       </c>
       <c r="B408" s="16" t="s">
         <v>52</v>
@@ -22435,11 +22457,11 @@
       </c>
     </row>
     <row r="409" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A409" s="1" t="s">
-        <v>127</v>
+      <c r="A409" s="23" t="s">
+        <v>132</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="C409" s="6" t="s">
         <v>2</v>
